--- a/Backlogs/MiniTramways-Backlog-15.12.21.xlsx
+++ b/Backlogs/MiniTramways-Backlog-15.12.21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24809"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubRepos\MiniTramways\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AE9498-88AF-49B9-85F4-06199CF48733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD46AD3-679D-4EF2-8064-1A1A23F09358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1F765A07-F6B4-4E3C-A596-2A823F0537A9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>Carte et bâtiments</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>22</t>
+  </si>
+  <si>
+    <t>Grands bâtiments</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -382,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,12 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -667,10 +667,10 @@
     <xf numFmtId="46" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,10 +683,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC90CC32-74CD-4930-AC52-90CD3C0405D5}">
   <dimension ref="A2:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,10 +1126,10 @@
       <c r="G7" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="H7" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="29" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1163,10 +1164,10 @@
       <c r="E9" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="36" t="s">
+      <c r="F9" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="29" t="s">
         <v>97</v>
       </c>
       <c r="H9" s="17"/>
@@ -1201,10 +1202,10 @@
       <c r="C11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="44">
         <v>31</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="44" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="28" t="s">
@@ -1390,16 +1391,16 @@
       <c r="C29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="44" t="s">
+      <c r="F29" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="37" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1410,32 +1411,36 @@
       <c r="C30" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="45" t="s">
+      <c r="G30" s="37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="46" t="s">
+      <c r="B31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="46" t="s">
+      <c r="F31" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="39" t="s">
         <v>102</v>
       </c>
     </row>

--- a/Backlogs/MiniTramways-Backlog-15.12.21.xlsx
+++ b/Backlogs/MiniTramways-Backlog-15.12.21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubRepos\MiniTramways\Backlogs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD46AD3-679D-4EF2-8064-1A1A23F09358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{824953F6-C256-4255-89A7-4F97874FCEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{1F765A07-F6B4-4E3C-A596-2A823F0537A9}"/>
   </bookViews>
@@ -671,6 +671,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,11 +688,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC90CC32-74CD-4930-AC52-90CD3C0405D5}">
   <dimension ref="A2:V62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,22 +1026,22 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="40" t="s">
+      <c r="C3" s="46"/>
+      <c r="D3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="40" t="s">
+      <c r="E3" s="46"/>
+      <c r="F3" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="40" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="41"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="24"/>
@@ -1202,10 +1202,10 @@
       <c r="C11" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="40">
         <v>31</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="40" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="28" t="s">
@@ -1359,18 +1359,18 @@
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="42" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42" t="s">
+      <c r="E27" s="48"/>
+      <c r="F27" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="43"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
@@ -1385,10 +1385,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="37" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="36" t="s">
@@ -1405,16 +1405,16 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="42" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="36" t="s">
@@ -1425,16 +1425,16 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="44" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="38" t="s">
@@ -1458,18 +1458,18 @@
       <c r="A37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="43"/>
-      <c r="D37" s="42" t="s">
+      <c r="C37" s="48"/>
+      <c r="D37" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="48"/>
+      <c r="F37" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="43"/>
+      <c r="G37" s="48"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
